--- a/Analysis & SQL/Oefeningen/2151 tot 2153.xlsx
+++ b/Analysis & SQL/Oefeningen/2151 tot 2153.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER\WORK\Opleidingen\PXL\data\Analysis &amp; SQL\Oefeningen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Desktop\Vakken\Data\Analysis &amp; SQL\Oefeningen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{808A3B98-8708-4218-874B-62353E435EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB32199-510F-4B01-8EDF-C2D2973E8D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A70E164B-0B3C-436B-947A-3D1F0FEBC2FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A70E164B-0B3C-436B-947A-3D1F0FEBC2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="144">
   <si>
     <t>Aantal</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Beschrijving</t>
   </si>
   <si>
-    <t>Prijs per eenheid</t>
-  </si>
-  <si>
     <t>Order nmr</t>
   </si>
   <si>
@@ -116,27 +113,12 @@
     <t>Lid nmr</t>
   </si>
   <si>
-    <t>Voor naam</t>
-  </si>
-  <si>
-    <t>Huis nmr</t>
-  </si>
-  <si>
     <t>Geslacht</t>
   </si>
   <si>
-    <t>Tel</t>
-  </si>
-  <si>
-    <t>GSM</t>
-  </si>
-  <si>
     <t>GbDatum</t>
   </si>
   <si>
-    <t>Mail</t>
-  </si>
-  <si>
     <t>Lidgeld</t>
   </si>
   <si>
@@ -192,13 +174,307 @@
   </si>
   <si>
     <t>Locatie omschrijving</t>
+  </si>
+  <si>
+    <t>0NV:</t>
+  </si>
+  <si>
+    <t>1 grote tabel maken van alle koloment die je ziet (alles oplijsten wat je ziet)</t>
+  </si>
+  <si>
+    <t>1NV:</t>
+  </si>
+  <si>
+    <t>Samengestelde kolommen opslitsen in enkelvoudige kolommen (elementaire data)</t>
+  </si>
+  <si>
+    <t>Process gegevens wissen (een totaal is een voorbeeld hiervan)</t>
+  </si>
+  <si>
+    <t>Kies een sleutel (hierlangs bv.: Order nmr)</t>
+  </si>
+  <si>
+    <t>Welke kolomen herhalen zich ten opzichte van de sleutel?</t>
+  </si>
+  <si>
+    <t>Duid deze kolommen aan en kopier deze samen met de gekozen sleutel naar nieuw</t>
+  </si>
+  <si>
+    <t>verwijder gekozen kolomen uit oorspronkelijke tabel (buiten key)</t>
+  </si>
+  <si>
+    <t>eenheidsprijs</t>
+  </si>
+  <si>
+    <t>2NV:</t>
+  </si>
+  <si>
+    <t>klanten data</t>
+  </si>
+  <si>
+    <t>order data</t>
+  </si>
+  <si>
+    <t>artikel data</t>
+  </si>
+  <si>
+    <t>aantal artikel data</t>
+  </si>
+  <si>
+    <t>duid kolommen aan die zich herhalen ten opzichte van een deel van de samengestelde-</t>
+  </si>
+  <si>
+    <t>sleutel</t>
+  </si>
+  <si>
+    <t>koppieer deze kolommen samen met het gekozen stuk van de sleutel naar een nieuwe</t>
+  </si>
+  <si>
+    <t>tabel, en dan verwijderen we kolommen uit origin tabel, maar geen key</t>
+  </si>
+  <si>
+    <t>3NV:</t>
+  </si>
+  <si>
+    <t>kijk naar alle tabellen</t>
+  </si>
+  <si>
+    <t>het gaat niet meer over herhaling, maar over functionele afhankelijkheid tussen</t>
+  </si>
+  <si>
+    <t>kolommen, welke kolommen zijn functioneel afhankelijk tov niet-sleutelkolommen</t>
+  </si>
+  <si>
+    <t>duid die kolommen aan samen met hun afhankelijkheid</t>
+  </si>
+  <si>
+    <t>koppieer deze kolommen (samen met un afhaneklijkheid) naar een nieuwe kolom</t>
+  </si>
+  <si>
+    <t>de afhaneklijkheid wordt de nieuwe sleutel</t>
+  </si>
+  <si>
+    <t>in de oorspronkelijke tabel, blijft enkel de keys over</t>
+  </si>
+  <si>
+    <t>LidHuisnr</t>
+  </si>
+  <si>
+    <t>LidStraat</t>
+  </si>
+  <si>
+    <t>LidNaam</t>
+  </si>
+  <si>
+    <t>LidVoornaam</t>
+  </si>
+  <si>
+    <t>LidPostcode</t>
+  </si>
+  <si>
+    <t>LidStad</t>
+  </si>
+  <si>
+    <t>LidMail</t>
+  </si>
+  <si>
+    <t>LidTel</t>
+  </si>
+  <si>
+    <t>LidGSM</t>
+  </si>
+  <si>
+    <t>OPLOSSING</t>
+  </si>
+  <si>
+    <t>Lid</t>
+  </si>
+  <si>
+    <t>Wedstrijdlid</t>
+  </si>
+  <si>
+    <t>AantalPunten</t>
+  </si>
+  <si>
+    <t>Wedstrijd</t>
+  </si>
+  <si>
+    <t>Beginuur</t>
+  </si>
+  <si>
+    <t>Uit/Thuis</t>
+  </si>
+  <si>
+    <t>scoreThuisploeg</t>
+  </si>
+  <si>
+    <t>ScoreUitploeg</t>
+  </si>
+  <si>
+    <t>Woonplaats</t>
+  </si>
+  <si>
+    <t>LidWoonplaats</t>
+  </si>
+  <si>
+    <t>Ploeg</t>
+  </si>
+  <si>
+    <t>ploeg</t>
+  </si>
+  <si>
+    <t>leeftijdscategoerie</t>
+  </si>
+  <si>
+    <t>Bedraglidgeld</t>
+  </si>
+  <si>
+    <t>leeftijdscategorie</t>
+  </si>
+  <si>
+    <t>LidGeboorteDatum</t>
+  </si>
+  <si>
+    <t>LidGeslacht</t>
+  </si>
+  <si>
+    <t>fout gemaakt in 2NV, leeftijdscategorie behoord niet in de tussentabel, wedstrijdnr wel</t>
+  </si>
+  <si>
+    <t>Patientnmr</t>
+  </si>
+  <si>
+    <t>PatientVoornaam</t>
+  </si>
+  <si>
+    <t>PatientNaam</t>
+  </si>
+  <si>
+    <t>PatientStraat</t>
+  </si>
+  <si>
+    <t>PatientHuisnummer</t>
+  </si>
+  <si>
+    <t>PatientGbdatum</t>
+  </si>
+  <si>
+    <t>Kamer</t>
+  </si>
+  <si>
+    <t>Omschrijving</t>
+  </si>
+  <si>
+    <t>AantalDagen</t>
+  </si>
+  <si>
+    <t>Prijs/Dag</t>
+  </si>
+  <si>
+    <t>DokterNaam</t>
+  </si>
+  <si>
+    <t>DokterNmr</t>
+  </si>
+  <si>
+    <t>DokterVoornaam</t>
+  </si>
+  <si>
+    <t>PatientData</t>
+  </si>
+  <si>
+    <t>PatientGeslacht</t>
+  </si>
+  <si>
+    <t>PatientTelefoon</t>
+  </si>
+  <si>
+    <t>kijk enkel naar tabellen met samengestelde sleutel (een tussen tabel)</t>
+  </si>
+  <si>
+    <t>DokterStraat</t>
+  </si>
+  <si>
+    <t>DokterHuisnummer</t>
+  </si>
+  <si>
+    <t>verblijfTermijn</t>
+  </si>
+  <si>
+    <t>DokterData</t>
+  </si>
+  <si>
+    <t>KamerData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedrag </t>
+  </si>
+  <si>
+    <t>2.1.5.4</t>
+  </si>
+  <si>
+    <t>Aantal plaatsen</t>
+  </si>
+  <si>
+    <t>ComplexHuisnmr</t>
+  </si>
+  <si>
+    <t>ComplexStraat</t>
+  </si>
+  <si>
+    <t>ComplexNaam</t>
+  </si>
+  <si>
+    <t>ComplexNmr</t>
+  </si>
+  <si>
+    <t>KinderenToegelaten</t>
+  </si>
+  <si>
+    <t>FilmNmr</t>
+  </si>
+  <si>
+    <t>FilmNaam</t>
+  </si>
+  <si>
+    <t>FilmPrijs</t>
+  </si>
+  <si>
+    <t>ZaalNmr</t>
+  </si>
+  <si>
+    <t>ZaalNaam</t>
+  </si>
+  <si>
+    <t>ComplexData</t>
+  </si>
+  <si>
+    <t>Tussentabel</t>
+  </si>
+  <si>
+    <t>FilmData</t>
+  </si>
+  <si>
+    <t>ZaalData</t>
+  </si>
+  <si>
+    <t>2.1.5.5</t>
+  </si>
+  <si>
+    <t>2.1.5.6</t>
+  </si>
+  <si>
+    <t>Kinepolis</t>
+  </si>
+  <si>
+    <t>Ziekenhuis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +482,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +522,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -251,15 +577,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -275,7 +610,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -571,39 +906,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431F5E67-8BAA-468B-80BD-CC29F0159B2E}">
-  <dimension ref="A2:F38"/>
+  <dimension ref="A2:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="69.77734375" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -611,13 +972,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,238 +992,715 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="G7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+      <c r="G11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="G21" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
+      <c r="G22" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
         <v>33</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="9"/>
+      <c r="B66" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>30</v>
+      <c r="F69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" t="s">
+        <v>113</v>
+      </c>
+      <c r="F70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="9"/>
+      <c r="B80" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D86" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="9"/>
+      <c r="B96" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F97" s="9"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" t="s">
+        <v>132</v>
+      </c>
+      <c r="E99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis & SQL/Oefeningen/2151 tot 2153.xlsx
+++ b/Analysis & SQL/Oefeningen/2151 tot 2153.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J\Desktop\Vakken\Data\Analysis &amp; SQL\Oefeningen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB32199-510F-4B01-8EDF-C2D2973E8D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6BEF4E-54D6-4D22-9F54-09FEAD012634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A70E164B-0B3C-436B-947A-3D1F0FEBC2FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
   <si>
     <t>Aantal</t>
   </si>
@@ -398,9 +398,6 @@
     <t>DokterHuisnummer</t>
   </si>
   <si>
-    <t>verblijfTermijn</t>
-  </si>
-  <si>
     <t>DokterData</t>
   </si>
   <si>
@@ -468,6 +465,18 @@
   </si>
   <si>
     <t>Ziekenhuis</t>
+  </si>
+  <si>
+    <t>ZaalFilm</t>
+  </si>
+  <si>
+    <t>ComplexFilm</t>
+  </si>
+  <si>
+    <t>DokterPatient</t>
+  </si>
+  <si>
+    <t>KamerPatient</t>
   </si>
 </sst>
 </file>
@@ -908,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431F5E67-8BAA-468B-80BD-CC29F0159B2E}">
   <dimension ref="A2:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1431,35 +1440,39 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C67" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>101</v>
       </c>
@@ -1475,8 +1488,11 @@
       <c r="F68" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>102</v>
       </c>
@@ -1492,14 +1508,14 @@
       <c r="F69" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>103</v>
       </c>
-      <c r="C70" t="s">
-        <v>109</v>
-      </c>
       <c r="D70" t="s">
         <v>113</v>
       </c>
@@ -1507,29 +1523,23 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>104</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="D71" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>105</v>
       </c>
-      <c r="C72" t="s">
-        <v>123</v>
-      </c>
       <c r="D72" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>10</v>
       </c>
@@ -1537,28 +1547,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -1567,75 +1580,78 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
       <c r="B81" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C81" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="E81" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E81" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F81" s="9"/>
+      <c r="F81" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" t="s">
         <v>131</v>
       </c>
-      <c r="D83" t="s">
-        <v>132</v>
-      </c>
       <c r="E83" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D86" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
       <c r="B96" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>142</v>
@@ -1647,56 +1663,56 @@
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
       <c r="B97" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="D97" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="E97" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="F97" s="9"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" t="s">
         <v>131</v>
       </c>
-      <c r="D99" t="s">
-        <v>132</v>
-      </c>
       <c r="E99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
